--- a/data/trans_orig/P32A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P32A-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6133</v>
+        <v>6221</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006851460004903795</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02184934262167221</v>
+        <v>0.02216058433203225</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6935</v>
+        <v>6916</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004117251917556537</v>
@@ -790,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.014846751300297</v>
+        <v>0.01480463296314187</v>
       </c>
     </row>
     <row r="5">
@@ -807,7 +807,7 @@
         <v>278790</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>274580</v>
+        <v>274492</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>280713</v>
@@ -816,7 +816,7 @@
         <v>0.9931485399950962</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9781506573783278</v>
+        <v>0.9778394156679678</v>
       </c>
       <c r="I5" s="6" t="n">
         <v>1</v>
@@ -841,7 +841,7 @@
         <v>465207</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>460195</v>
+        <v>460214</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>467130</v>
@@ -850,7 +850,7 @@
         <v>0.9958827480824435</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.985153248699703</v>
+        <v>0.9851953670368592</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,19 +945,19 @@
         <v>4951</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10842</v>
+        <v>10206</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.009865147395146228</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003885888356549613</v>
+        <v>0.003882695064954951</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02160300060209637</v>
+        <v>0.02033556550632794</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5741</v>
+        <v>4618</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004705840962363289</v>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02654686950083144</v>
+        <v>0.02135366870511748</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>6</v>
@@ -987,19 +987,19 @@
         <v>5969</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2031</v>
+        <v>2039</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>12775</v>
+        <v>12117</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.008311506035973925</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002828021442263447</v>
+        <v>0.002839070289532899</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01778902132296483</v>
+        <v>0.01687281729868771</v>
       </c>
     </row>
     <row r="8">
@@ -1016,19 +1016,19 @@
         <v>496930</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>491039</v>
+        <v>491675</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>499931</v>
+        <v>499932</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9901348526048538</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9783969993979036</v>
+        <v>0.9796644344936718</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9961141116434504</v>
+        <v>0.996117304935045</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>201</v>
@@ -1037,7 +1037,7 @@
         <v>215237</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>210514</v>
+        <v>211637</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>216255</v>
@@ -1046,7 +1046,7 @@
         <v>0.9952941590376367</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9734531304991685</v>
+        <v>0.9786463312948822</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1058,19 +1058,19 @@
         <v>712167</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>705361</v>
+        <v>706019</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>716105</v>
+        <v>716097</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.991688493964026</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9822109786770351</v>
+        <v>0.9831271827013124</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9971719785577364</v>
+        <v>0.9971609297104672</v>
       </c>
     </row>
     <row r="9">
@@ -1162,19 +1162,19 @@
         <v>4778</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1823</v>
+        <v>1828</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11730</v>
+        <v>10560</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01189271026842924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004536709622516005</v>
+        <v>0.004548959967946692</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02919313632806583</v>
+        <v>0.02628144075791501</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1186,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7433</v>
+        <v>7763</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008656272417060526</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03314406302202948</v>
+        <v>0.0346138915183774</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1204,19 +1204,19 @@
         <v>6720</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2929</v>
+        <v>2862</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12763</v>
+        <v>14152</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01073333729196436</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004677837381908833</v>
+        <v>0.004571812550650292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02038570086083713</v>
+        <v>0.02260409754942699</v>
       </c>
     </row>
     <row r="11">
@@ -1233,19 +1233,19 @@
         <v>397012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>390060</v>
+        <v>391230</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>399967</v>
+        <v>399962</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9881072897315708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.970806863671934</v>
+        <v>0.9737185592420851</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9954632903774839</v>
+        <v>0.9954510400320533</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>215</v>
@@ -1254,7 +1254,7 @@
         <v>222330</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>216838</v>
+        <v>216508</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>224271</v>
@@ -1263,7 +1263,7 @@
         <v>0.9913437275829394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.966855936977971</v>
+        <v>0.9653861084816228</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -1275,19 +1275,19 @@
         <v>619341</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>613298</v>
+        <v>611909</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>623132</v>
+        <v>623199</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9892666627080356</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9796142991391626</v>
+        <v>0.9773959024505711</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9953221626180911</v>
+        <v>0.9954281874493496</v>
       </c>
     </row>
     <row r="12">
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6769</v>
+        <v>6299</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.006574185632964078</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02159303896080136</v>
+        <v>0.02009282233117287</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1416,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>6153</v>
+        <v>6989</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004493096908813207</v>
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01341395095575423</v>
+        <v>0.01523625224286237</v>
       </c>
     </row>
     <row r="14">
@@ -1442,7 +1442,7 @@
         <v>311433</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>306725</v>
+        <v>307195</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>313494</v>
@@ -1451,7 +1451,7 @@
         <v>0.9934258143670359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9784069610391998</v>
+        <v>0.9799071776688272</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1476,7 +1476,7 @@
         <v>456636</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>452544</v>
+        <v>451708</v>
       </c>
       <c r="T14" s="5" t="n">
         <v>458697</v>
@@ -1485,7 +1485,7 @@
         <v>0.9955069030911868</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9865860490442458</v>
+        <v>0.9847637477571383</v>
       </c>
       <c r="W14" s="6" t="n">
         <v>1</v>
@@ -1580,19 +1580,19 @@
         <v>5368</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1809</v>
+        <v>1797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12559</v>
+        <v>11703</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0298077936570147</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01004363224441768</v>
+        <v>0.009977124819988947</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06973883308440787</v>
+        <v>0.06498433504431403</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1614,19 +1614,19 @@
         <v>5368</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1805</v>
+        <v>1937</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12271</v>
+        <v>12072</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0210080527956714</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007065448904656862</v>
+        <v>0.00758120934647941</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0480205601386177</v>
+        <v>0.04724421240169625</v>
       </c>
     </row>
     <row r="17">
@@ -1643,19 +1643,19 @@
         <v>174724</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>167533</v>
+        <v>168389</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>178283</v>
+        <v>178295</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9701922063429853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9302611669155921</v>
+        <v>0.935015664955686</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9899563677555824</v>
+        <v>0.9900228751800111</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>74</v>
@@ -1677,19 +1677,19 @@
         <v>250159</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>243256</v>
+        <v>243455</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>253722</v>
+        <v>253590</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9789919472043286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9519794398613823</v>
+        <v>0.9527557875983041</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9929345510953431</v>
+        <v>0.9924187906535207</v>
       </c>
     </row>
     <row r="18">
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5144</v>
+        <v>5071</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01376585255352029</v>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07033409020098574</v>
+        <v>0.06934434032346866</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -1987,7 +1987,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5405</v>
+        <v>5525</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01122872022674021</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06028414144176982</v>
+        <v>0.06162313160710679</v>
       </c>
     </row>
     <row r="23">
@@ -2013,7 +2013,7 @@
         <v>72128</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>67991</v>
+        <v>68064</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>73135</v>
@@ -2022,7 +2022,7 @@
         <v>0.9862341474464797</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9296659097990142</v>
+        <v>0.9306556596765312</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2047,7 +2047,7 @@
         <v>88653</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>84255</v>
+        <v>84135</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>89660</v>
@@ -2056,7 +2056,7 @@
         <v>0.9887712797732597</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.93971585855823</v>
+        <v>0.9383768683928935</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -2151,19 +2151,19 @@
         <v>20089</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12327</v>
+        <v>13155</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30191</v>
+        <v>31348</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01068032722022275</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006553849995549054</v>
+        <v>0.006994169884733087</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01605121709184693</v>
+        <v>0.01666670361010787</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2172,19 +2172,19 @@
         <v>2959</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>922</v>
+        <v>351</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8114</v>
+        <v>8083</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003311710099870096</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001031926920405972</v>
+        <v>0.0003932406261777745</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.009080710637896481</v>
+        <v>0.009046118031454085</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>23</v>
@@ -2193,19 +2193,19 @@
         <v>23048</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>14843</v>
+        <v>15207</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>34336</v>
+        <v>34834</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.00830725709611568</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00534995931607798</v>
+        <v>0.005481135541557372</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01237587289231625</v>
+        <v>0.01255567199229491</v>
       </c>
     </row>
     <row r="26">
@@ -2222,19 +2222,19 @@
         <v>1860815</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1850713</v>
+        <v>1849556</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1868577</v>
+        <v>1867749</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9893196727797773</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9839487829081536</v>
+        <v>0.9833332963898922</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.993446150004451</v>
+        <v>0.993005830115267</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>870</v>
@@ -2243,19 +2243,19 @@
         <v>890540</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>885385</v>
+        <v>885416</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>892577</v>
+        <v>893148</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9966882899001299</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9909192893621036</v>
+        <v>0.9909538819685459</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9989680730795941</v>
+        <v>0.999606759373823</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2696</v>
@@ -2264,19 +2264,19 @@
         <v>2751355</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2740067</v>
+        <v>2739569</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2759560</v>
+        <v>2759196</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9916927429038843</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9876241271076841</v>
+        <v>0.9874443280077053</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9946500406839222</v>
+        <v>0.9945188644584428</v>
       </c>
     </row>
     <row r="27">
@@ -2611,19 +2611,19 @@
         <v>9219</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4572</v>
+        <v>4611</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16531</v>
+        <v>15968</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03297242912597143</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01635307551971475</v>
+        <v>0.01649251465538919</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05912830293822877</v>
+        <v>0.05711134678913643</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>7127</v>
+        <v>7022</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01111782577822401</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03883376208895203</v>
+        <v>0.03826219590089771</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>12</v>
@@ -2653,19 +2653,19 @@
         <v>11259</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5715</v>
+        <v>5684</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19850</v>
+        <v>19030</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0243118409042652</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.012340331176244</v>
+        <v>0.012274218812761</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04286174522845605</v>
+        <v>0.0410930674035269</v>
       </c>
     </row>
     <row r="5">
@@ -2682,19 +2682,19 @@
         <v>270367</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>263055</v>
+        <v>263618</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>275014</v>
+        <v>274975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9670275708740286</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9408716970617717</v>
+        <v>0.9428886532108635</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9836469244802852</v>
+        <v>0.9835074853446107</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>176</v>
@@ -2703,7 +2703,7 @@
         <v>181481</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>176394</v>
+        <v>176499</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>183521</v>
@@ -2712,7 +2712,7 @@
         <v>0.9888821742217759</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.961166237911048</v>
+        <v>0.9617378040991024</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -2724,19 +2724,19 @@
         <v>451848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>443257</v>
+        <v>444077</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>457392</v>
+        <v>457423</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9756881590957348</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9571382547715441</v>
+        <v>0.958906932596473</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.987659668823756</v>
+        <v>0.987725781187239</v>
       </c>
     </row>
     <row r="6">
@@ -2828,19 +2828,19 @@
         <v>13405</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7606</v>
+        <v>7552</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>22429</v>
+        <v>22004</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0286555139154151</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01625875556147586</v>
+        <v>0.01614361813542154</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04794656981952525</v>
+        <v>0.04703664232528038</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2852,7 +2852,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5628</v>
+        <v>4468</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.004223220544361897</v>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02662958778476925</v>
+        <v>0.02113837699259775</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>15</v>
@@ -2870,19 +2870,19 @@
         <v>14298</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>8268</v>
+        <v>8501</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>23066</v>
+        <v>23284</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02105214393628252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01217363218558596</v>
+        <v>0.01251712957538566</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03396320182879162</v>
+        <v>0.03428361569549356</v>
       </c>
     </row>
     <row r="8">
@@ -2899,19 +2899,19 @@
         <v>454392</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>445368</v>
+        <v>445793</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>460191</v>
+        <v>460245</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9713444860845849</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9520534301804746</v>
+        <v>0.9529633576747195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9837412444385242</v>
+        <v>0.9838563818645782</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>199</v>
@@ -2920,7 +2920,7 @@
         <v>210459</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>205724</v>
+        <v>206884</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>211352</v>
@@ -2929,7 +2929,7 @@
         <v>0.9957767794556381</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.973370412215231</v>
+        <v>0.9788616230074022</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2941,19 +2941,19 @@
         <v>664851</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>656083</v>
+        <v>655865</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>670881</v>
+        <v>670648</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9789478560637175</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9660367981712087</v>
+        <v>0.9657163843045063</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.987826367814414</v>
+        <v>0.987482870424614</v>
       </c>
     </row>
     <row r="9">
@@ -3045,19 +3045,19 @@
         <v>12818</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7083</v>
+        <v>7318</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21853</v>
+        <v>23449</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03007461888883009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01661812615496621</v>
+        <v>0.01717102342496104</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05127396194050778</v>
+        <v>0.05501892284909075</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -3069,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4727</v>
+        <v>4685</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.003858565094533299</v>
@@ -3078,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01942896818916386</v>
+        <v>0.0192552199775806</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3087,19 +3087,19 @@
         <v>13757</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7707</v>
+        <v>7535</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24842</v>
+        <v>24409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02054714906556363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01151059716624499</v>
+        <v>0.01125428431613853</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03710485486129495</v>
+        <v>0.0364574436512913</v>
       </c>
     </row>
     <row r="11">
@@ -3116,19 +3116,19 @@
         <v>413385</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>404350</v>
+        <v>402754</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>419120</v>
+        <v>418885</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9699253811111699</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.948726038059492</v>
+        <v>0.9449810771509086</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9833818738450337</v>
+        <v>0.9828289765750389</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>222</v>
@@ -3137,7 +3137,7 @@
         <v>242379</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>238591</v>
+        <v>238633</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>243318</v>
@@ -3146,7 +3146,7 @@
         <v>0.9961414349054667</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9805710318108362</v>
+        <v>0.9807447800224195</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -3158,19 +3158,19 @@
         <v>655764</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>644679</v>
+        <v>645112</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>661814</v>
+        <v>661986</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9794528509344363</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.962895145138705</v>
+        <v>0.9635425563487086</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.988489402833755</v>
+        <v>0.9887457156838615</v>
       </c>
     </row>
     <row r="12">
@@ -3262,19 +3262,19 @@
         <v>8768</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3718</v>
+        <v>3442</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19056</v>
+        <v>18600</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02242481547140959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009509931721973532</v>
+        <v>0.008803613502065839</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04873691245993442</v>
+        <v>0.04757049020314411</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5163</v>
+        <v>5168</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00481672350158324</v>
@@ -3295,7 +3295,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02421879856163536</v>
+        <v>0.02424473131941914</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -3304,19 +3304,19 @@
         <v>9795</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4255</v>
+        <v>4385</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19877</v>
+        <v>21329</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01621196055978272</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.007043353939392406</v>
+        <v>0.007258568119272195</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03289994190836746</v>
+        <v>0.03530250016330073</v>
       </c>
     </row>
     <row r="14">
@@ -3333,19 +3333,19 @@
         <v>382229</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>371941</v>
+        <v>372397</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>387279</v>
+        <v>387555</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9775751845285904</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9512630875400657</v>
+        <v>0.9524295097968555</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9904900682780265</v>
+        <v>0.9911963864979342</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>186</v>
@@ -3354,7 +3354,7 @@
         <v>212150</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>208014</v>
+        <v>208009</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>213177</v>
@@ -3363,7 +3363,7 @@
         <v>0.9951832764984168</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9757812014383646</v>
+        <v>0.9757552686805808</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3375,19 +3375,19 @@
         <v>594379</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>584297</v>
+        <v>582845</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>599919</v>
+        <v>599789</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9837880394402173</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9671000580916325</v>
+        <v>0.9646974998366992</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9929566460606076</v>
+        <v>0.9927414318807278</v>
       </c>
     </row>
     <row r="15">
@@ -3482,7 +3482,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12197</v>
+        <v>11023</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00959932721080111</v>
@@ -3491,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05262106102163241</v>
+        <v>0.04755520322283663</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -3500,19 +3500,19 @@
         <v>4094</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12230</v>
+        <v>11369</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03649401016447432</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008997626752705766</v>
+        <v>0.009004520777167785</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1090074071042631</v>
+        <v>0.1013375383287909</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>4</v>
@@ -3521,19 +3521,19 @@
         <v>6319</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>16162</v>
+        <v>15759</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01837126951258241</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005875894665539321</v>
+        <v>0.005858582811788403</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04698416872726968</v>
+        <v>0.04581432196164738</v>
       </c>
     </row>
     <row r="17">
@@ -3550,7 +3550,7 @@
         <v>229566</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>219594</v>
+        <v>220768</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>231791</v>
@@ -3559,7 +3559,7 @@
         <v>0.9904006727891989</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9473789389783676</v>
+        <v>0.9524447967771634</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -3571,19 +3571,19 @@
         <v>108100</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>99964</v>
+        <v>100825</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>111185</v>
+        <v>111184</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9635059898355257</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8909925928957376</v>
+        <v>0.898662461671209</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9910023732472942</v>
+        <v>0.9909954792228323</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>306</v>
@@ -3592,19 +3592,19 @@
         <v>337665</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>327822</v>
+        <v>328225</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>341963</v>
+        <v>341969</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9816287304874176</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9530158312727307</v>
+        <v>0.9541856780383529</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9941241053344607</v>
+        <v>0.9941414171882116</v>
       </c>
     </row>
     <row r="18">
@@ -3696,19 +3696,19 @@
         <v>2933</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7849</v>
+        <v>7787</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01910790100194583</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006039014586277041</v>
+        <v>0.006069858826019686</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05113850181582264</v>
+        <v>0.05073680879490153</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -3730,19 +3730,19 @@
         <v>2933</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8036</v>
+        <v>7921</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01396533784068506</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004453900293295249</v>
+        <v>0.00449219258593127</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03826986113167116</v>
+        <v>0.03772181242275177</v>
       </c>
     </row>
     <row r="20">
@@ -3759,19 +3759,19 @@
         <v>150543</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>145627</v>
+        <v>145689</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152549</v>
+        <v>152544</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9808920989980542</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9488614981841774</v>
+        <v>0.9492631912050997</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9939609854137229</v>
+        <v>0.9939301411739804</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>50</v>
@@ -3793,19 +3793,19 @@
         <v>207058</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>201955</v>
+        <v>202070</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>209056</v>
+        <v>209048</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9860346621593149</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9617301388683288</v>
+        <v>0.9622781875772481</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9955460997067047</v>
+        <v>0.9955078074140687</v>
       </c>
     </row>
     <row r="21">
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>11036</v>
+        <v>11417</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02681588388857092</v>
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1290325133054751</v>
+        <v>0.1334813133625479</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -3934,7 +3934,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10797</v>
+        <v>11099</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02086993741005003</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09824779832735406</v>
+        <v>0.1009874423997205</v>
       </c>
     </row>
     <row r="23">
@@ -3960,7 +3960,7 @@
         <v>83238</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>74496</v>
+        <v>74115</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>85532</v>
@@ -3969,7 +3969,7 @@
         <v>0.9731841161114291</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8709674866945248</v>
+        <v>0.8665186866374522</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -3994,7 +3994,7 @@
         <v>107606</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>99103</v>
+        <v>98801</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>109900</v>
@@ -4003,7 +4003,7 @@
         <v>0.9791300625899499</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9017522016726462</v>
+        <v>0.8990125576002798</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -4098,19 +4098,19 @@
         <v>51661</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36939</v>
+        <v>38080</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>68835</v>
+        <v>67956</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02538136876123935</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01814867028367212</v>
+        <v>0.01870920448803541</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03381922781528899</v>
+        <v>0.03338733225922886</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>8</v>
@@ -4119,19 +4119,19 @@
         <v>8993</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3958</v>
+        <v>4152</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>17886</v>
+        <v>17813</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008610313003841706</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.00378960129705333</v>
+        <v>0.0039753201607172</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01712486952277045</v>
+        <v>0.01705469296001155</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>56</v>
@@ -4140,19 +4140,19 @@
         <v>60654</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>46242</v>
+        <v>46185</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>78836</v>
+        <v>79027</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01969388441311008</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01501451755682503</v>
+        <v>0.0149960137151997</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02559755530060259</v>
+        <v>0.0256594154309164</v>
       </c>
     </row>
     <row r="26">
@@ -4169,19 +4169,19 @@
         <v>1983719</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1966545</v>
+        <v>1967424</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1998441</v>
+        <v>1997300</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9746186312387607</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.966180772184711</v>
+        <v>0.9666126677407711</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9818513297163279</v>
+        <v>0.9812907955119646</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>951</v>
@@ -4190,19 +4190,19 @@
         <v>1035453</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1026560</v>
+        <v>1026633</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1040488</v>
+        <v>1040294</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9913896869961583</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9828751304772306</v>
+        <v>0.9829453070399884</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9962103987029467</v>
+        <v>0.9960246798392828</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2817</v>
@@ -4211,19 +4211,19 @@
         <v>3019173</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3000991</v>
+        <v>3000800</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3033585</v>
+        <v>3033642</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.98030611558689</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9744024446993973</v>
+        <v>0.9743405845690839</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.984985482443175</v>
+        <v>0.9850039862848006</v>
       </c>
     </row>
     <row r="27">
@@ -4561,16 +4561,16 @@
         <v>1109</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11251</v>
+        <v>9776</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01471714788689533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.00434802533910228</v>
+        <v>0.004347539265914121</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.044090665956164</v>
+        <v>0.03831111728788612</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4579,19 +4579,19 @@
         <v>3028</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9165</v>
+        <v>8319</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01755298157305882</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005482332615527353</v>
+        <v>0.005462745111667499</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05313175804374803</v>
+        <v>0.04822960738012409</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -4600,19 +4600,19 @@
         <v>6783</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2253</v>
+        <v>2460</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13783</v>
+        <v>14418</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01586094864222712</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.005267504930807522</v>
+        <v>0.005751427489696976</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03222814957313191</v>
+        <v>0.03371252252741386</v>
       </c>
     </row>
     <row r="5">
@@ -4629,7 +4629,7 @@
         <v>251417</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>243921</v>
+        <v>245396</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>254063</v>
@@ -4638,10 +4638,10 @@
         <v>0.9852828521131046</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9559093340438359</v>
+        <v>0.9616888827121144</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9956519746608977</v>
+        <v>0.9956524607340859</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -4650,19 +4650,19 @@
         <v>169466</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>163329</v>
+        <v>164175</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>171548</v>
+        <v>171552</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9824470184269412</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9468682419562524</v>
+        <v>0.9517703926198759</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9945176673844726</v>
+        <v>0.9945372548883326</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>412</v>
@@ -4671,19 +4671,19 @@
         <v>420883</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>413883</v>
+        <v>413248</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>425413</v>
+        <v>425206</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9841390513577729</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9677718504268683</v>
+        <v>0.9662874774725864</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9947324950691925</v>
+        <v>0.9942485725103031</v>
       </c>
     </row>
     <row r="6">
@@ -4775,19 +4775,19 @@
         <v>10457</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>5024</v>
+        <v>5027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18293</v>
+        <v>19173</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02860712265059526</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0137453942917469</v>
+        <v>0.01375151799094747</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.050046156551712</v>
+        <v>0.0524517289113297</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4799,7 +4799,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6800</v>
+        <v>7279</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008582933409836565</v>
@@ -4808,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03027238879164024</v>
+        <v>0.0324024977490505</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -4817,19 +4817,19 @@
         <v>12385</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7065</v>
+        <v>6401</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21242</v>
+        <v>21018</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02098531072122364</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01197163204731186</v>
+        <v>0.01084649156642093</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03599242586016674</v>
+        <v>0.03561413195746738</v>
       </c>
     </row>
     <row r="8">
@@ -4846,19 +4846,19 @@
         <v>355075</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>347239</v>
+        <v>346359</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>360508</v>
+        <v>360505</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9713928773494047</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9499538434482878</v>
+        <v>0.9475482710886699</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9862546057082531</v>
+        <v>0.9862484820090526</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>227</v>
@@ -4867,7 +4867,7 @@
         <v>222708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>217836</v>
+        <v>217357</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>224636</v>
@@ -4876,7 +4876,7 @@
         <v>0.9914170665901635</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9697276112083599</v>
+        <v>0.9675975022509493</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -4888,19 +4888,19 @@
         <v>577783</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>568926</v>
+        <v>569150</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>583103</v>
+        <v>583767</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9790146892787763</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9640075741398333</v>
+        <v>0.9643858680425327</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9880283679526881</v>
+        <v>0.9891535084335792</v>
       </c>
     </row>
     <row r="9">
@@ -4992,19 +4992,19 @@
         <v>9026</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4018</v>
+        <v>4163</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>16147</v>
+        <v>16527</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02088277209232075</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.009296001929125747</v>
+        <v>0.00963043733821565</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03735646025659752</v>
+        <v>0.0382346208771606</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -5016,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5911</v>
+        <v>5892</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007706212391650911</v>
@@ -5025,7 +5025,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0236979300252979</v>
+        <v>0.02362180342352581</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>11</v>
@@ -5034,19 +5034,19 @@
         <v>10949</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>5610</v>
+        <v>5730</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18943</v>
+        <v>18919</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01606128678879861</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.008230128470671109</v>
+        <v>0.008406471787861327</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02778950623383285</v>
+        <v>0.02775385745399877</v>
       </c>
     </row>
     <row r="11">
@@ -5063,19 +5063,19 @@
         <v>423216</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>416095</v>
+        <v>415715</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>428224</v>
+        <v>428079</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9791172279076793</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9626435397434029</v>
+        <v>0.9617653791228394</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9907039980708744</v>
+        <v>0.9903695626617844</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>247</v>
@@ -5084,7 +5084,7 @@
         <v>247513</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>243524</v>
+        <v>243543</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>249435</v>
@@ -5093,7 +5093,7 @@
         <v>0.9922937876083491</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9763020699747021</v>
+        <v>0.9763781965764742</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -5105,19 +5105,19 @@
         <v>670728</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>662734</v>
+        <v>662758</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>676067</v>
+        <v>675947</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9839387132112014</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9722104937661671</v>
+        <v>0.9722461425460012</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9917698715293289</v>
+        <v>0.9915935282121386</v>
       </c>
     </row>
     <row r="12">
@@ -5209,19 +5209,19 @@
         <v>8229</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3468</v>
+        <v>3451</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16118</v>
+        <v>17198</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02116694166664895</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.008919899119950479</v>
+        <v>0.00887770190533232</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04146029792837271</v>
+        <v>0.04423732157652885</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5233,7 +5233,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>8150</v>
+        <v>8851</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.008323169267090426</v>
@@ -5242,7 +5242,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03060993224748228</v>
+        <v>0.03324326168088015</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>9</v>
@@ -5251,19 +5251,19 @@
         <v>10445</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4575</v>
+        <v>5464</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>18816</v>
+        <v>19318</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01594617407526091</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006984896146973561</v>
+        <v>0.008341549277109518</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02872535086609656</v>
+        <v>0.02949284989851905</v>
       </c>
     </row>
     <row r="14">
@@ -5280,19 +5280,19 @@
         <v>380535</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>372646</v>
+        <v>371566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>385296</v>
+        <v>385313</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9788330583333511</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9585397020716272</v>
+        <v>0.9557626784234715</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9910801008800495</v>
+        <v>0.9911222980946677</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>241</v>
@@ -5301,7 +5301,7 @@
         <v>264037</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>258103</v>
+        <v>257402</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>266253</v>
@@ -5310,7 +5310,7 @@
         <v>0.9916768307329096</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9693900677525175</v>
+        <v>0.96675673831912</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -5322,19 +5322,19 @@
         <v>644573</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>636202</v>
+        <v>635700</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>650443</v>
+        <v>649554</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9840538259247391</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9712746491339023</v>
+        <v>0.9705071501014808</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9930151038530264</v>
+        <v>0.9916584507228904</v>
       </c>
     </row>
     <row r="15">
@@ -5429,16 +5429,16 @@
         <v>2211</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12234</v>
+        <v>12455</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01954085884584446</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007710551305906523</v>
+        <v>0.007709971575463978</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0426665551962846</v>
+        <v>0.0434376810505376</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>3</v>
@@ -5447,19 +5447,19 @@
         <v>4122</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1122</v>
+        <v>1142</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12551</v>
+        <v>12737</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03182339463388566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008661290676105167</v>
+        <v>0.008819241371989627</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09689466208534044</v>
+        <v>0.09833640436322375</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>8</v>
@@ -5468,19 +5468,19 @@
         <v>9725</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>4571</v>
+        <v>4526</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>19007</v>
+        <v>18581</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02336274353500148</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01098169024407726</v>
+        <v>0.01087325442444531</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04566026196544201</v>
+        <v>0.04463779328913169</v>
       </c>
     </row>
     <row r="17">
@@ -5497,7 +5497,7 @@
         <v>281138</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>274507</v>
+        <v>274286</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>284530</v>
@@ -5506,10 +5506,10 @@
         <v>0.9804591411541556</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9573334448037154</v>
+        <v>0.9565623189494625</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9922894486940935</v>
+        <v>0.9922900284245361</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>109</v>
@@ -5518,19 +5518,19 @@
         <v>125406</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116977</v>
+        <v>116791</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>128406</v>
+        <v>128386</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9681766053661144</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9031053379146596</v>
+        <v>0.9016635956367758</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9913387093238948</v>
+        <v>0.9911807586280104</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>358</v>
@@ -5539,19 +5539,19 @@
         <v>406543</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>397261</v>
+        <v>397687</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>411697</v>
+        <v>411742</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9766372564649985</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.954339738034558</v>
+        <v>0.9553622067108686</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9890183097559228</v>
+        <v>0.9891267455755547</v>
       </c>
     </row>
     <row r="18">
@@ -5643,19 +5643,19 @@
         <v>2941</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>8381</v>
+        <v>8156</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01656952386139755</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005062073944367381</v>
+        <v>0.005008082989068624</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.0472207044405211</v>
+        <v>0.04595576991369817</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4771</v>
+        <v>5776</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0161714303216558</v>
@@ -5676,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07186430486308615</v>
+        <v>0.08699580863911693</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -5685,19 +5685,19 @@
         <v>4014</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1061</v>
+        <v>971</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9090</v>
+        <v>9641</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01646114874840628</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004349129391834827</v>
+        <v>0.003980830933441011</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03727484692601261</v>
+        <v>0.03953361440558583</v>
       </c>
     </row>
     <row r="20">
@@ -5714,19 +5714,19 @@
         <v>174543</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>169103</v>
+        <v>169328</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>176586</v>
+        <v>176595</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9834304761386025</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9527792955594782</v>
+        <v>0.9540442300863009</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9949379260556327</v>
+        <v>0.9949919170109314</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -5735,7 +5735,7 @@
         <v>65318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>61621</v>
+        <v>60616</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>66392</v>
@@ -5744,7 +5744,7 @@
         <v>0.9838285696783442</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9281356951369162</v>
+        <v>0.9130041913608838</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -5756,19 +5756,19 @@
         <v>239862</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>234786</v>
+        <v>234235</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>242815</v>
+        <v>242905</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9835388512515937</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9627251530739875</v>
+        <v>0.9604663855944142</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9956508706081652</v>
+        <v>0.996019169066559</v>
       </c>
     </row>
     <row r="21">
@@ -5876,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6037</v>
+        <v>5756</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0326420347914694</v>
@@ -5885,7 +5885,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1650663183201443</v>
+        <v>0.157367931812482</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -5897,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4844</v>
+        <v>7532</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009044368467569907</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.036698817259509</v>
+        <v>0.05705894664540764</v>
       </c>
     </row>
     <row r="23">
@@ -5936,7 +5936,7 @@
         <v>35381</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>30538</v>
+        <v>30819</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>36575</v>
@@ -5945,7 +5945,7 @@
         <v>0.9673579652085306</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8349336816798559</v>
+        <v>0.8426320681875188</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -5957,7 +5957,7 @@
         <v>130807</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>127157</v>
+        <v>124469</v>
       </c>
       <c r="T23" s="5" t="n">
         <v>132001</v>
@@ -5966,7 +5966,7 @@
         <v>0.99095563153243</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.963301182740491</v>
+        <v>0.9429410533545916</v>
       </c>
       <c r="W23" s="6" t="n">
         <v>1</v>
@@ -6061,19 +6061,19 @@
         <v>40012</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>28826</v>
+        <v>27784</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>53504</v>
+        <v>54440</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0199921725099144</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01440299018189199</v>
+        <v>0.01388254730379938</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02673361592792014</v>
+        <v>0.02720169174189093</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>14</v>
@@ -6082,19 +6082,19 @@
         <v>15484</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>8453</v>
+        <v>8664</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>25982</v>
+        <v>25490</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01351912809843498</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007380111584790931</v>
+        <v>0.007565173891796469</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02268570669374467</v>
+        <v>0.02225593362223846</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>51</v>
@@ -6103,19 +6103,19 @@
         <v>55495</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>42239</v>
+        <v>42541</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>71518</v>
+        <v>73274</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01763614337582197</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01342338800477017</v>
+        <v>0.01351940162931248</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02272798605609453</v>
+        <v>0.02328616081257612</v>
       </c>
     </row>
     <row r="26">
@@ -6132,19 +6132,19 @@
         <v>1961350</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1947858</v>
+        <v>1946922</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1972536</v>
+        <v>1973578</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9800078274900856</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9732663840720799</v>
+        <v>0.9727983082581091</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9855970098181079</v>
+        <v>0.9861174526962005</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1081</v>
@@ -6153,19 +6153,19 @@
         <v>1129828</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1119330</v>
+        <v>1119822</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1136859</v>
+        <v>1136648</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.986480871901565</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9773142933062555</v>
+        <v>0.9777440663777616</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9926198884152091</v>
+        <v>0.9924348261082035</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2938</v>
@@ -6174,19 +6174,19 @@
         <v>3091179</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3075156</v>
+        <v>3073400</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3104435</v>
+        <v>3104133</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.982363856624178</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9772720139439055</v>
+        <v>0.9767138391874239</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9865766119952303</v>
+        <v>0.9864805983706876</v>
       </c>
     </row>
     <row r="27">
@@ -6534,19 +6534,19 @@
         <v>7843</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2237</v>
+        <v>2110</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20074</v>
+        <v>19106</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07066145080879474</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02015137688168405</v>
+        <v>0.01900880899862114</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1808530548616765</v>
+        <v>0.1721363055639563</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -6555,19 +6555,19 @@
         <v>7843</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2237</v>
+        <v>2177</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19232</v>
+        <v>21192</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02829006628722464</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008068409634708919</v>
+        <v>0.007852984406943242</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06937004552152662</v>
+        <v>0.07643809390420678</v>
       </c>
     </row>
     <row r="5">
@@ -6597,19 +6597,19 @@
         <v>103152</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>90921</v>
+        <v>91889</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>108758</v>
+        <v>108885</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9293385491912052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8191469451383236</v>
+        <v>0.8278636944360437</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9798486231183161</v>
+        <v>0.9809911910013789</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>132</v>
@@ -6618,19 +6618,19 @@
         <v>269395</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>258006</v>
+        <v>256046</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>275001</v>
+        <v>275061</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9717099337127753</v>
+        <v>0.9717099337127755</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9306299544784734</v>
+        <v>0.9235619060957929</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9919315903652911</v>
+        <v>0.9921470155930567</v>
       </c>
     </row>
     <row r="6">
@@ -6725,7 +6725,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7029</v>
+        <v>6210</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004955035639810957</v>
@@ -6734,7 +6734,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02817606473692633</v>
+        <v>0.02489169763591092</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6156</v>
+        <v>6179</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01173318202180176</v>
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04063347266428648</v>
+        <v>0.0407828778641877</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -6764,19 +6764,19 @@
         <v>3014</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8404</v>
+        <v>8994</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.007516173960380681</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.002162785286392031</v>
+        <v>0.002172919331185182</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02095950719087765</v>
+        <v>0.02243047870420645</v>
       </c>
     </row>
     <row r="8">
@@ -6793,7 +6793,7 @@
         <v>248228</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>242435</v>
+        <v>243254</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>249464</v>
@@ -6802,7 +6802,7 @@
         <v>0.9950449643601891</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9718239352630736</v>
+        <v>0.9751083023640891</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -6814,16 +6814,16 @@
         <v>149730</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>145352</v>
+        <v>145329</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>151508</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.988266817978198</v>
+        <v>0.9882668179781983</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9593665273357139</v>
+        <v>0.9592171221358124</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -6835,19 +6835,19 @@
         <v>397958</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>392568</v>
+        <v>391978</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>400105</v>
+        <v>400101</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9924838260396193</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9790404928091212</v>
+        <v>0.977569521295793</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9978372147136079</v>
+        <v>0.9978270806688149</v>
       </c>
     </row>
     <row r="9">
@@ -6939,19 +6939,19 @@
         <v>3452</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1109</v>
+        <v>1127</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9297</v>
+        <v>10718</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01107665908549122</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003559741406414505</v>
+        <v>0.003615356317574081</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02983305674358156</v>
+        <v>0.03439323017419931</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -6963,16 +6963,16 @@
         <v>470</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6581</v>
+        <v>5749</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01234100684332727</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.002775837469394574</v>
+        <v>0.00277745603280128</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03890616084905761</v>
+        <v>0.03398802038261876</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -6981,19 +6981,19 @@
         <v>5539</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2179</v>
+        <v>2339</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11944</v>
+        <v>12535</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01152147312131303</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004531142479459824</v>
+        <v>0.004865114017345011</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02484252949771176</v>
+        <v>0.0260716224552334</v>
       </c>
     </row>
     <row r="11">
@@ -7010,19 +7010,19 @@
         <v>308191</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>302346</v>
+        <v>300925</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>310534</v>
+        <v>310516</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9889233409145086</v>
+        <v>0.9889233409145088</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9701669432564184</v>
+        <v>0.9656067698257992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9964402585935854</v>
+        <v>0.9963846436824259</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>225</v>
@@ -7031,7 +7031,7 @@
         <v>167062</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>162568</v>
+        <v>163400</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>168679</v>
@@ -7040,10 +7040,10 @@
         <v>0.9876589931566727</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9610938391509424</v>
+        <v>0.9660119796173812</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9972241625306054</v>
+        <v>0.9972225439671988</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>491</v>
@@ -7052,19 +7052,19 @@
         <v>475252</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>468847</v>
+        <v>468256</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>478612</v>
+        <v>478452</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.988478526878687</v>
+        <v>0.9884785268786869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9751574705022882</v>
+        <v>0.9739283775447667</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9954688575205402</v>
+        <v>0.9951348859826551</v>
       </c>
     </row>
     <row r="12">
@@ -7156,19 +7156,19 @@
         <v>8291</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3883</v>
+        <v>3816</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>16379</v>
+        <v>16059</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02370441007008068</v>
+        <v>0.02370441007008069</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01110145536838552</v>
+        <v>0.01090902451215468</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04682839298406542</v>
+        <v>0.045913546216249</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -7177,19 +7177,19 @@
         <v>2112</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5615</v>
+        <v>5649</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01013213211923168</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.003309532075322924</v>
+        <v>0.003289266947257904</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02694333504352265</v>
+        <v>0.02710607993065251</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -7198,19 +7198,19 @@
         <v>10402</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6206</v>
+        <v>5571</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>19239</v>
+        <v>18628</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.01863689131506923</v>
+        <v>0.01863689131506924</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01111924061878375</v>
+        <v>0.009981287214113075</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03446933615335807</v>
+        <v>0.03337322079249801</v>
       </c>
     </row>
     <row r="14">
@@ -7227,19 +7227,19 @@
         <v>341468</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>333380</v>
+        <v>333700</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>345876</v>
+        <v>345943</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9762955899299192</v>
+        <v>0.9762955899299193</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9531716070159346</v>
+        <v>0.9540864537837509</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9888985446316146</v>
+        <v>0.989090975487845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>315</v>
@@ -7248,19 +7248,19 @@
         <v>206290</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>202787</v>
+        <v>202753</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>207712</v>
+        <v>207717</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9898678678807683</v>
+        <v>0.9898678678807685</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9730566649564772</v>
+        <v>0.9728939200693475</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.996690467924677</v>
+        <v>0.9967107330527422</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>638</v>
@@ -7269,19 +7269,19 @@
         <v>547760</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>538923</v>
+        <v>539534</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>551956</v>
+        <v>552591</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9813631086849306</v>
+        <v>0.9813631086849308</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9655306638466418</v>
+        <v>0.9666267792075022</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9888807593812163</v>
+        <v>0.990018712785887</v>
       </c>
     </row>
     <row r="15">
@@ -7373,19 +7373,19 @@
         <v>9703</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4866</v>
+        <v>5214</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>15847</v>
+        <v>16169</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03473217288144596</v>
+        <v>0.03473217288144594</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01741694058555567</v>
+        <v>0.01866445538776646</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05672503845697876</v>
+        <v>0.05788014920267353</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -7394,19 +7394,19 @@
         <v>3124</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1207</v>
+        <v>1243</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>7115</v>
+        <v>6782</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02111588893310705</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008155437139848598</v>
+        <v>0.008398094719730406</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04808603955473756</v>
+        <v>0.04583624222627911</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -7415,19 +7415,19 @@
         <v>12827</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8070</v>
+        <v>7772</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20202</v>
+        <v>20005</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03001757609804073</v>
+        <v>0.03001757609804074</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0188859990774288</v>
+        <v>0.01818697144699378</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04727715293984435</v>
+        <v>0.04681594550505258</v>
       </c>
     </row>
     <row r="17">
@@ -7444,19 +7444,19 @@
         <v>269658</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>263514</v>
+        <v>263192</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>274495</v>
+        <v>274147</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9652678271185542</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9432749615430205</v>
+        <v>0.9421198507973265</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9825830594144441</v>
+        <v>0.9813355446122337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>235</v>
@@ -7465,19 +7465,19 @@
         <v>144834</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140843</v>
+        <v>141176</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146751</v>
+        <v>146715</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9788841110668929</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9519139604452626</v>
+        <v>0.9541637577737209</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9918445628601515</v>
+        <v>0.9916019052802698</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>527</v>
@@ -7486,19 +7486,19 @@
         <v>414491</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>407116</v>
+        <v>407313</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>419248</v>
+        <v>419546</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9699824239019592</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9527228470601555</v>
+        <v>0.9531840544949475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9811140009225711</v>
+        <v>0.9818130285530065</v>
       </c>
     </row>
     <row r="18">
@@ -7590,19 +7590,19 @@
         <v>5306</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2375</v>
+        <v>2386</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10368</v>
+        <v>9887</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02562079647157828</v>
+        <v>0.02562079647157829</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01146872743577882</v>
+        <v>0.01152380023012614</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05006409239809486</v>
+        <v>0.04774168189439897</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -7611,19 +7611,19 @@
         <v>1323</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>3805</v>
+        <v>3757</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01676251794493451</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005453943188270634</v>
+        <v>0.005414610642455585</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04822795458109019</v>
+        <v>0.04762121009747498</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -7632,19 +7632,19 @@
         <v>6628</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3468</v>
+        <v>3560</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>11671</v>
+        <v>11598</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.02317701426504536</v>
+        <v>0.02317701426504535</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01212782361942322</v>
+        <v>0.01244877765159356</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04080826380659199</v>
+        <v>0.04055407412995228</v>
       </c>
     </row>
     <row r="20">
@@ -7661,19 +7661,19 @@
         <v>201786</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>196724</v>
+        <v>197205</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>204717</v>
+        <v>204706</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9743792035284217</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.949935907601905</v>
+        <v>0.9522583181056012</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.988531272564221</v>
+        <v>0.9884761997698738</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>146</v>
@@ -7682,19 +7682,19 @@
         <v>77575</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>75093</v>
+        <v>75141</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>78468</v>
+        <v>78471</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9832374820550656</v>
+        <v>0.9832374820550654</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9517720454189111</v>
+        <v>0.9523787899025253</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9945460568117295</v>
+        <v>0.9945853893575445</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>425</v>
@@ -7703,19 +7703,19 @@
         <v>279362</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>274319</v>
+        <v>274392</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>282522</v>
+        <v>282430</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9768229857349546</v>
+        <v>0.9768229857349544</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9591917361934081</v>
+        <v>0.9594459258700491</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9878721763805768</v>
+        <v>0.9875512223484063</v>
       </c>
     </row>
     <row r="21">
@@ -7807,19 +7807,19 @@
         <v>2448</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5896</v>
+        <v>5866</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.02230694350210351</v>
+        <v>0.02230694350210352</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.005145866095676083</v>
+        <v>0.005079336985402896</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05372312672127518</v>
+        <v>0.05345249700088388</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -7831,7 +7831,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4517</v>
+        <v>3985</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03598841319354957</v>
@@ -7840,7 +7840,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1466620122532964</v>
+        <v>0.1293981030407621</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -7849,19 +7849,19 @@
         <v>3556</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1352</v>
+        <v>1521</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7552</v>
+        <v>7809</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.02530508582049331</v>
+        <v>0.02530508582049332</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00961950016123274</v>
+        <v>0.01081914914513993</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05373947942509195</v>
+        <v>0.05556583924201114</v>
       </c>
     </row>
     <row r="23">
@@ -7878,19 +7878,19 @@
         <v>107293</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>103845</v>
+        <v>103875</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>109176</v>
+        <v>109184</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9776930564978964</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.946276873278725</v>
+        <v>0.9465475029991168</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.994854133904324</v>
+        <v>0.9949206630145971</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>52</v>
@@ -7899,7 +7899,7 @@
         <v>29689</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>26280</v>
+        <v>26812</v>
       </c>
       <c r="M23" s="5" t="n">
         <v>30797</v>
@@ -7908,7 +7908,7 @@
         <v>0.9640115868064505</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8533379877467036</v>
+        <v>0.8706018969592333</v>
       </c>
       <c r="P23" s="6" t="n">
         <v>1</v>
@@ -7920,19 +7920,19 @@
         <v>136982</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>132986</v>
+        <v>132729</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>139186</v>
+        <v>139017</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9746949141795065</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9462605205749085</v>
+        <v>0.9444341607579889</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9903804998387674</v>
+        <v>0.98918085085486</v>
       </c>
     </row>
     <row r="24">
@@ -8024,19 +8024,19 @@
         <v>30436</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21682</v>
+        <v>21930</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42658</v>
+        <v>42250</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01818891211447395</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0129575261908821</v>
+        <v>0.01310594502918397</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02549346045865339</v>
+        <v>0.02524922090805205</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -8045,19 +8045,19 @@
         <v>19375</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11718</v>
+        <v>11423</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31269</v>
+        <v>31311</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02158266978621578</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01305299500146801</v>
+        <v>0.012725000987786</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03483249737062398</v>
+        <v>0.03487899208158756</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>58</v>
@@ -8066,19 +8066,19 @@
         <v>49810</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37604</v>
+        <v>37560</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>64464</v>
+        <v>65654</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01937389432992979</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01462620364488456</v>
+        <v>0.01460905786503916</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02507357394948062</v>
+        <v>0.02553641941051289</v>
       </c>
     </row>
     <row r="26">
@@ -8095,19 +8095,19 @@
         <v>1642867</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1630645</v>
+        <v>1631053</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1651621</v>
+        <v>1651373</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.9818110878855257</v>
+        <v>0.9818110878855262</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9745065395413466</v>
+        <v>0.9747507790919481</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9870424738091178</v>
+        <v>0.9868940549708159</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1173</v>
@@ -8116,19 +8116,19 @@
         <v>878332</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>866438</v>
+        <v>866396</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>885989</v>
+        <v>886284</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9784173302137842</v>
+        <v>0.9784173302137843</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9651675026293762</v>
+        <v>0.9651210079184124</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9869470049985324</v>
+        <v>0.9872749990122137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>2718</v>
@@ -8137,19 +8137,19 @@
         <v>2521200</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2506546</v>
+        <v>2505356</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2533406</v>
+        <v>2533450</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9806261056700702</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9749264260505194</v>
+        <v>0.9744635805894872</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9853737963551154</v>
+        <v>0.9853909421349608</v>
       </c>
     </row>
     <row r="27">
